--- a/report_zone/Report_zone12.xlsx
+++ b/report_zone/Report_zone12.xlsx
@@ -2405,7 +2405,7 @@
       </c>
       <c r="HF2" t="inlineStr">
         <is>
-          <t>2025-05-19 05:58:05</t>
+          <t>2025-05-19 19:58:09</t>
         </is>
       </c>
     </row>
@@ -3313,7 +3313,7 @@
       </c>
       <c r="HF3" t="inlineStr">
         <is>
-          <t>2025-05-19 05:58:05</t>
+          <t>2025-05-19 19:58:09</t>
         </is>
       </c>
     </row>
@@ -4221,7 +4221,7 @@
       </c>
       <c r="HF4" t="inlineStr">
         <is>
-          <t>2025-05-19 05:58:05</t>
+          <t>2025-05-19 19:58:09</t>
         </is>
       </c>
     </row>
@@ -5129,7 +5129,7 @@
       </c>
       <c r="HF5" t="inlineStr">
         <is>
-          <t>2025-05-19 05:58:05</t>
+          <t>2025-05-19 19:58:09</t>
         </is>
       </c>
     </row>
@@ -6037,7 +6037,7 @@
       </c>
       <c r="HF6" t="inlineStr">
         <is>
-          <t>2025-05-19 05:58:05</t>
+          <t>2025-05-19 19:58:09</t>
         </is>
       </c>
     </row>
@@ -6714,7 +6714,7 @@
       </c>
       <c r="FC7" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FD7" t="inlineStr"/>
@@ -6732,7 +6732,7 @@
       </c>
       <c r="FI7" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FJ7" t="inlineStr">
@@ -6792,7 +6792,7 @@
       </c>
       <c r="FU7" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FV7" t="inlineStr">
@@ -6945,7 +6945,7 @@
       </c>
       <c r="HF7" t="inlineStr">
         <is>
-          <t>2025-05-19 05:58:05</t>
+          <t>2025-05-19 19:58:09</t>
         </is>
       </c>
     </row>
@@ -7865,7 +7865,7 @@
       </c>
       <c r="HF8" t="inlineStr">
         <is>
-          <t>2025-05-19 05:58:05</t>
+          <t>2025-05-19 19:58:09</t>
         </is>
       </c>
     </row>
@@ -8773,7 +8773,7 @@
       </c>
       <c r="HF9" t="inlineStr">
         <is>
-          <t>2025-05-19 05:58:05</t>
+          <t>2025-05-19 19:58:09</t>
         </is>
       </c>
     </row>
@@ -9681,7 +9681,7 @@
       </c>
       <c r="HF10" t="inlineStr">
         <is>
-          <t>2025-05-19 05:58:05</t>
+          <t>2025-05-19 19:58:09</t>
         </is>
       </c>
     </row>
@@ -10589,7 +10589,7 @@
       </c>
       <c r="HF11" t="inlineStr">
         <is>
-          <t>2025-05-19 05:58:05</t>
+          <t>2025-05-19 19:58:09</t>
         </is>
       </c>
     </row>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="HF12" t="inlineStr">
         <is>
-          <t>2025-05-19 05:58:05</t>
+          <t>2025-05-19 19:58:09</t>
         </is>
       </c>
     </row>
@@ -12405,7 +12405,7 @@
       </c>
       <c r="HF13" t="inlineStr">
         <is>
-          <t>2025-05-19 05:58:05</t>
+          <t>2025-05-19 19:58:09</t>
         </is>
       </c>
     </row>
@@ -13313,7 +13313,7 @@
       </c>
       <c r="HF14" t="inlineStr">
         <is>
-          <t>2025-05-19 05:58:05</t>
+          <t>2025-05-19 19:58:09</t>
         </is>
       </c>
     </row>
@@ -14221,7 +14221,7 @@
       </c>
       <c r="HF15" t="inlineStr">
         <is>
-          <t>2025-05-19 05:58:05</t>
+          <t>2025-05-19 19:58:09</t>
         </is>
       </c>
     </row>
@@ -15129,7 +15129,7 @@
       </c>
       <c r="HF16" t="inlineStr">
         <is>
-          <t>2025-05-19 05:58:05</t>
+          <t>2025-05-19 19:58:09</t>
         </is>
       </c>
     </row>
@@ -16037,7 +16037,7 @@
       </c>
       <c r="HF17" t="inlineStr">
         <is>
-          <t>2025-05-19 05:58:05</t>
+          <t>2025-05-19 19:58:09</t>
         </is>
       </c>
     </row>
@@ -16945,7 +16945,7 @@
       </c>
       <c r="HF18" t="inlineStr">
         <is>
-          <t>2025-05-19 05:58:05</t>
+          <t>2025-05-19 19:58:09</t>
         </is>
       </c>
     </row>
@@ -17853,7 +17853,7 @@
       </c>
       <c r="HF19" t="inlineStr">
         <is>
-          <t>2025-05-19 05:58:05</t>
+          <t>2025-05-19 19:58:09</t>
         </is>
       </c>
     </row>
@@ -18769,7 +18769,7 @@
       </c>
       <c r="HF20" t="inlineStr">
         <is>
-          <t>2025-05-19 05:58:05</t>
+          <t>2025-05-19 19:58:09</t>
         </is>
       </c>
     </row>
@@ -19621,7 +19621,7 @@
       <c r="HE21" t="inlineStr"/>
       <c r="HF21" t="inlineStr">
         <is>
-          <t>2025-05-19 05:58:05</t>
+          <t>2025-05-19 19:58:09</t>
         </is>
       </c>
     </row>
@@ -20537,7 +20537,7 @@
       </c>
       <c r="HF22" t="inlineStr">
         <is>
-          <t>2025-05-19 05:58:05</t>
+          <t>2025-05-19 19:58:09</t>
         </is>
       </c>
     </row>
@@ -21453,7 +21453,7 @@
       </c>
       <c r="HF23" t="inlineStr">
         <is>
-          <t>2025-05-19 05:58:05</t>
+          <t>2025-05-19 19:58:09</t>
         </is>
       </c>
     </row>
@@ -22369,7 +22369,7 @@
       </c>
       <c r="HF24" t="inlineStr">
         <is>
-          <t>2025-05-19 05:58:05</t>
+          <t>2025-05-19 19:58:09</t>
         </is>
       </c>
     </row>
@@ -23277,7 +23277,7 @@
       </c>
       <c r="HF25" t="inlineStr">
         <is>
-          <t>2025-05-19 05:58:05</t>
+          <t>2025-05-19 19:58:09</t>
         </is>
       </c>
     </row>
@@ -24185,7 +24185,7 @@
       </c>
       <c r="HF26" t="inlineStr">
         <is>
-          <t>2025-05-19 05:58:05</t>
+          <t>2025-05-19 19:58:09</t>
         </is>
       </c>
     </row>
@@ -25093,7 +25093,7 @@
       </c>
       <c r="HF27" t="inlineStr">
         <is>
-          <t>2025-05-19 05:58:05</t>
+          <t>2025-05-19 19:58:09</t>
         </is>
       </c>
     </row>
@@ -26009,7 +26009,7 @@
       </c>
       <c r="HF28" t="inlineStr">
         <is>
-          <t>2025-05-19 05:58:05</t>
+          <t>2025-05-19 19:58:09</t>
         </is>
       </c>
     </row>
@@ -26917,7 +26917,7 @@
       </c>
       <c r="HF29" t="inlineStr">
         <is>
-          <t>2025-05-19 05:58:05</t>
+          <t>2025-05-19 19:58:09</t>
         </is>
       </c>
     </row>
@@ -27825,7 +27825,7 @@
       </c>
       <c r="HF30" t="inlineStr">
         <is>
-          <t>2025-05-19 05:58:05</t>
+          <t>2025-05-19 19:58:09</t>
         </is>
       </c>
     </row>
@@ -28733,7 +28733,7 @@
       </c>
       <c r="HF31" t="inlineStr">
         <is>
-          <t>2025-05-19 05:58:05</t>
+          <t>2025-05-19 19:58:09</t>
         </is>
       </c>
     </row>
@@ -28780,7 +28780,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -29178,14 +29178,14 @@
       <c r="CT32" t="inlineStr"/>
       <c r="CU32" t="inlineStr"/>
       <c r="CV32" t="inlineStr"/>
-      <c r="CW32" t="inlineStr"/>
+      <c r="CW32" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
       <c r="CX32" t="inlineStr"/>
       <c r="CY32" t="inlineStr"/>
-      <c r="CZ32" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
+      <c r="CZ32" t="inlineStr"/>
       <c r="DA32" t="inlineStr">
         <is>
           <t>false</t>
@@ -29311,7 +29311,7 @@
       <c r="EA32" t="inlineStr"/>
       <c r="EB32" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="EC32" t="inlineStr"/>
@@ -29374,7 +29374,7 @@
       </c>
       <c r="EQ32" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="ER32" t="inlineStr"/>
@@ -29428,7 +29428,7 @@
       </c>
       <c r="FI32" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FJ32" t="inlineStr">
@@ -29488,7 +29488,7 @@
       </c>
       <c r="FU32" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FV32" t="inlineStr">
@@ -29550,13 +29550,13 @@
           <t>false</t>
         </is>
       </c>
-      <c r="GK32" t="inlineStr"/>
+      <c r="GK32" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
       <c r="GL32" t="inlineStr"/>
-      <c r="GM32" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
+      <c r="GM32" t="inlineStr"/>
       <c r="GN32" t="inlineStr"/>
       <c r="GO32" t="inlineStr">
         <is>
@@ -29641,7 +29641,7 @@
       </c>
       <c r="HF32" t="inlineStr">
         <is>
-          <t>2025-05-19 05:58:05</t>
+          <t>2025-05-19 19:58:09</t>
         </is>
       </c>
     </row>
@@ -30549,7 +30549,7 @@
       </c>
       <c r="HF33" t="inlineStr">
         <is>
-          <t>2025-05-19 05:58:05</t>
+          <t>2025-05-19 19:58:09</t>
         </is>
       </c>
     </row>
@@ -31457,7 +31457,7 @@
       </c>
       <c r="HF34" t="inlineStr">
         <is>
-          <t>2025-05-19 05:58:05</t>
+          <t>2025-05-19 19:58:09</t>
         </is>
       </c>
     </row>
@@ -32365,7 +32365,7 @@
       </c>
       <c r="HF35" t="inlineStr">
         <is>
-          <t>2025-05-19 05:58:05</t>
+          <t>2025-05-19 19:58:09</t>
         </is>
       </c>
     </row>
@@ -33273,7 +33273,7 @@
       </c>
       <c r="HF36" t="inlineStr">
         <is>
-          <t>2025-05-19 05:58:05</t>
+          <t>2025-05-19 19:58:09</t>
         </is>
       </c>
     </row>
@@ -34181,7 +34181,7 @@
       </c>
       <c r="HF37" t="inlineStr">
         <is>
-          <t>2025-05-19 05:58:05</t>
+          <t>2025-05-19 19:58:09</t>
         </is>
       </c>
     </row>
@@ -35089,7 +35089,7 @@
       </c>
       <c r="HF38" t="inlineStr">
         <is>
-          <t>2025-05-19 05:58:05</t>
+          <t>2025-05-19 19:58:09</t>
         </is>
       </c>
     </row>
@@ -35997,7 +35997,7 @@
       </c>
       <c r="HF39" t="inlineStr">
         <is>
-          <t>2025-05-19 05:58:05</t>
+          <t>2025-05-19 19:58:09</t>
         </is>
       </c>
     </row>
@@ -36913,7 +36913,7 @@
       </c>
       <c r="HF40" t="inlineStr">
         <is>
-          <t>2025-05-19 05:58:05</t>
+          <t>2025-05-19 19:58:09</t>
         </is>
       </c>
     </row>
@@ -37821,7 +37821,7 @@
       </c>
       <c r="HF41" t="inlineStr">
         <is>
-          <t>2025-05-19 05:58:05</t>
+          <t>2025-05-19 19:58:09</t>
         </is>
       </c>
     </row>
@@ -38729,7 +38729,7 @@
       </c>
       <c r="HF42" t="inlineStr">
         <is>
-          <t>2025-05-19 05:58:05</t>
+          <t>2025-05-19 19:58:09</t>
         </is>
       </c>
     </row>
@@ -39637,7 +39637,7 @@
       </c>
       <c r="HF43" t="inlineStr">
         <is>
-          <t>2025-05-19 05:58:05</t>
+          <t>2025-05-19 19:58:09</t>
         </is>
       </c>
     </row>
@@ -40545,7 +40545,7 @@
       </c>
       <c r="HF44" t="inlineStr">
         <is>
-          <t>2025-05-19 05:58:05</t>
+          <t>2025-05-19 19:58:09</t>
         </is>
       </c>
     </row>
@@ -41453,7 +41453,7 @@
       </c>
       <c r="HF45" t="inlineStr">
         <is>
-          <t>2025-05-19 05:58:05</t>
+          <t>2025-05-19 19:58:09</t>
         </is>
       </c>
     </row>
@@ -42361,7 +42361,7 @@
       </c>
       <c r="HF46" t="inlineStr">
         <is>
-          <t>2025-05-19 05:58:05</t>
+          <t>2025-05-19 19:58:09</t>
         </is>
       </c>
     </row>
@@ -43269,7 +43269,7 @@
       </c>
       <c r="HF47" t="inlineStr">
         <is>
-          <t>2025-05-19 05:58:05</t>
+          <t>2025-05-19 19:58:09</t>
         </is>
       </c>
     </row>
@@ -44177,7 +44177,7 @@
       </c>
       <c r="HF48" t="inlineStr">
         <is>
-          <t>2025-05-19 05:58:05</t>
+          <t>2025-05-19 19:58:09</t>
         </is>
       </c>
     </row>
@@ -45081,7 +45081,7 @@
       </c>
       <c r="HF49" t="inlineStr">
         <is>
-          <t>2025-05-19 05:58:05</t>
+          <t>2025-05-19 19:58:09</t>
         </is>
       </c>
     </row>
@@ -45989,7 +45989,7 @@
       </c>
       <c r="HF50" t="inlineStr">
         <is>
-          <t>2025-05-19 05:58:05</t>
+          <t>2025-05-19 19:58:09</t>
         </is>
       </c>
     </row>
@@ -46897,7 +46897,7 @@
       </c>
       <c r="HF51" t="inlineStr">
         <is>
-          <t>2025-05-19 05:58:05</t>
+          <t>2025-05-19 19:58:09</t>
         </is>
       </c>
     </row>
@@ -47805,7 +47805,7 @@
       </c>
       <c r="HF52" t="inlineStr">
         <is>
-          <t>2025-05-19 05:58:05</t>
+          <t>2025-05-19 19:58:09</t>
         </is>
       </c>
     </row>
@@ -48717,7 +48717,7 @@
       </c>
       <c r="HF53" t="inlineStr">
         <is>
-          <t>2025-05-19 05:58:05</t>
+          <t>2025-05-19 19:58:09</t>
         </is>
       </c>
     </row>
@@ -49625,7 +49625,7 @@
       </c>
       <c r="HF54" t="inlineStr">
         <is>
-          <t>2025-05-19 05:58:05</t>
+          <t>2025-05-19 19:58:09</t>
         </is>
       </c>
     </row>
@@ -50533,7 +50533,7 @@
       </c>
       <c r="HF55" t="inlineStr">
         <is>
-          <t>2025-05-19 05:58:05</t>
+          <t>2025-05-19 19:58:09</t>
         </is>
       </c>
     </row>
@@ -51441,7 +51441,7 @@
       </c>
       <c r="HF56" t="inlineStr">
         <is>
-          <t>2025-05-19 05:58:05</t>
+          <t>2025-05-19 19:58:09</t>
         </is>
       </c>
     </row>
@@ -52361,7 +52361,7 @@
       </c>
       <c r="HF57" t="inlineStr">
         <is>
-          <t>2025-05-19 05:58:05</t>
+          <t>2025-05-19 19:58:09</t>
         </is>
       </c>
     </row>
@@ -53277,7 +53277,7 @@
       </c>
       <c r="HF58" t="inlineStr">
         <is>
-          <t>2025-05-19 05:58:05</t>
+          <t>2025-05-19 19:58:09</t>
         </is>
       </c>
     </row>
@@ -54185,7 +54185,7 @@
       </c>
       <c r="HF59" t="inlineStr">
         <is>
-          <t>2025-05-19 05:58:05</t>
+          <t>2025-05-19 19:58:09</t>
         </is>
       </c>
     </row>
@@ -55093,7 +55093,7 @@
       </c>
       <c r="HF60" t="inlineStr">
         <is>
-          <t>2025-05-19 05:58:05</t>
+          <t>2025-05-19 19:58:09</t>
         </is>
       </c>
     </row>
@@ -56001,7 +56001,7 @@
       </c>
       <c r="HF61" t="inlineStr">
         <is>
-          <t>2025-05-19 05:58:05</t>
+          <t>2025-05-19 19:58:09</t>
         </is>
       </c>
     </row>
@@ -56909,7 +56909,7 @@
       </c>
       <c r="HF62" t="inlineStr">
         <is>
-          <t>2025-05-19 05:58:05</t>
+          <t>2025-05-19 19:58:09</t>
         </is>
       </c>
     </row>
@@ -57817,7 +57817,7 @@
       </c>
       <c r="HF63" t="inlineStr">
         <is>
-          <t>2025-05-19 05:58:05</t>
+          <t>2025-05-19 19:58:09</t>
         </is>
       </c>
     </row>
@@ -58725,7 +58725,7 @@
       </c>
       <c r="HF64" t="inlineStr">
         <is>
-          <t>2025-05-19 05:58:05</t>
+          <t>2025-05-19 19:58:09</t>
         </is>
       </c>
     </row>
@@ -59633,7 +59633,7 @@
       </c>
       <c r="HF65" t="inlineStr">
         <is>
-          <t>2025-05-19 05:58:05</t>
+          <t>2025-05-19 19:58:09</t>
         </is>
       </c>
     </row>
@@ -60541,7 +60541,7 @@
       </c>
       <c r="HF66" t="inlineStr">
         <is>
-          <t>2025-05-19 05:58:05</t>
+          <t>2025-05-19 19:58:09</t>
         </is>
       </c>
     </row>
@@ -61449,7 +61449,7 @@
       </c>
       <c r="HF67" t="inlineStr">
         <is>
-          <t>2025-05-19 05:58:05</t>
+          <t>2025-05-19 19:58:09</t>
         </is>
       </c>
     </row>
@@ -62357,7 +62357,7 @@
       </c>
       <c r="HF68" t="inlineStr">
         <is>
-          <t>2025-05-19 05:58:05</t>
+          <t>2025-05-19 19:58:09</t>
         </is>
       </c>
     </row>
@@ -63265,7 +63265,7 @@
       </c>
       <c r="HF69" t="inlineStr">
         <is>
-          <t>2025-05-19 05:58:05</t>
+          <t>2025-05-19 19:58:09</t>
         </is>
       </c>
     </row>
@@ -64173,7 +64173,7 @@
       </c>
       <c r="HF70" t="inlineStr">
         <is>
-          <t>2025-05-19 05:58:05</t>
+          <t>2025-05-19 19:58:09</t>
         </is>
       </c>
     </row>
@@ -65081,7 +65081,7 @@
       </c>
       <c r="HF71" t="inlineStr">
         <is>
-          <t>2025-05-19 05:58:05</t>
+          <t>2025-05-19 19:58:09</t>
         </is>
       </c>
     </row>
@@ -65989,7 +65989,7 @@
       </c>
       <c r="HF72" t="inlineStr">
         <is>
-          <t>2025-05-19 05:58:05</t>
+          <t>2025-05-19 19:58:09</t>
         </is>
       </c>
     </row>
@@ -66897,7 +66897,7 @@
       </c>
       <c r="HF73" t="inlineStr">
         <is>
-          <t>2025-05-19 05:58:05</t>
+          <t>2025-05-19 19:58:09</t>
         </is>
       </c>
     </row>
@@ -67805,7 +67805,7 @@
       </c>
       <c r="HF74" t="inlineStr">
         <is>
-          <t>2025-05-19 05:58:05</t>
+          <t>2025-05-19 19:58:09</t>
         </is>
       </c>
     </row>
@@ -68713,7 +68713,7 @@
       </c>
       <c r="HF75" t="inlineStr">
         <is>
-          <t>2025-05-19 05:58:05</t>
+          <t>2025-05-19 19:58:09</t>
         </is>
       </c>
     </row>
@@ -69621,7 +69621,7 @@
       </c>
       <c r="HF76" t="inlineStr">
         <is>
-          <t>2025-05-19 05:58:05</t>
+          <t>2025-05-19 19:58:09</t>
         </is>
       </c>
     </row>
@@ -70529,7 +70529,7 @@
       </c>
       <c r="HF77" t="inlineStr">
         <is>
-          <t>2025-05-19 05:58:05</t>
+          <t>2025-05-19 19:58:09</t>
         </is>
       </c>
     </row>
@@ -71437,7 +71437,7 @@
       </c>
       <c r="HF78" t="inlineStr">
         <is>
-          <t>2025-05-19 05:58:05</t>
+          <t>2025-05-19 19:58:09</t>
         </is>
       </c>
     </row>
@@ -72345,7 +72345,7 @@
       </c>
       <c r="HF79" t="inlineStr">
         <is>
-          <t>2025-05-19 05:58:05</t>
+          <t>2025-05-19 19:58:09</t>
         </is>
       </c>
     </row>
